--- a/docs/CareConnect-Medication-Flag-1.xlsx
+++ b/docs/CareConnect-Medication-Flag-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="281">
   <si>
     <t>Path</t>
   </si>
@@ -335,6 +335,20 @@
 </t>
   </si>
   <si>
+    <t>Associated medication</t>
+  </si>
+  <si>
+    <t>Associated medication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Flag.modifierExtension</t>
   </si>
   <si>
@@ -478,7 +492,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -2026,7 +2040,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>40</v>
@@ -2044,10 +2058,10 @@
         <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2107,10 +2121,10 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
@@ -2121,11 +2135,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2147,13 +2161,13 @@
         <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2203,7 +2217,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -2226,7 +2240,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2249,13 +2263,13 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2306,7 +2320,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2321,15 +2335,15 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2352,13 +2366,13 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2409,7 +2423,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2424,7 +2438,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
@@ -2432,11 +2446,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2458,13 +2472,13 @@
         <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2505,7 +2519,7 @@
         <v>96</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>41</v>
@@ -2514,7 +2528,7 @@
         <v>97</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2529,7 +2543,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -2537,7 +2551,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2563,16 +2577,16 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2597,13 +2611,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2621,7 +2635,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2636,7 +2650,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -2644,7 +2658,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2667,19 +2681,19 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2707,10 +2721,10 @@
         <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -2728,7 +2742,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2743,7 +2757,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -2751,7 +2765,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2777,14 +2791,14 @@
         <v>61</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -2797,7 +2811,7 @@
         <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>41</v>
@@ -2833,7 +2847,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2848,7 +2862,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -2856,7 +2870,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2879,16 +2893,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2902,7 +2916,7 @@
         <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>41</v>
@@ -2938,7 +2952,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2953,7 +2967,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -2961,7 +2975,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2984,13 +2998,13 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3041,7 +3055,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3056,7 +3070,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -3064,7 +3078,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3087,16 +3101,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3146,7 +3160,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3161,7 +3175,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -3169,7 +3183,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3195,13 +3209,13 @@
         <v>67</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3227,32 +3241,32 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AF21" t="s" s="2">
         <v>48</v>
       </c>
@@ -3266,15 +3280,15 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3297,13 +3311,13 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3330,7 +3344,7 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
@@ -3352,7 +3366,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3367,15 +3381,15 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3398,13 +3412,13 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3455,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3470,7 +3484,7 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -3478,11 +3492,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3504,13 +3518,13 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3551,7 +3565,7 @@
         <v>96</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>41</v>
@@ -3560,7 +3574,7 @@
         <v>97</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3575,7 +3589,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -3583,7 +3597,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3606,19 +3620,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3667,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3682,7 +3696,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -3690,7 +3704,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3713,13 +3727,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3770,7 +3784,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3785,7 +3799,7 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -3793,11 +3807,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3819,13 +3833,13 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3866,7 +3880,7 @@
         <v>96</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>41</v>
@@ -3875,7 +3889,7 @@
         <v>97</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3890,7 +3904,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -3898,7 +3912,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3924,23 +3938,23 @@
         <v>61</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>41</v>
@@ -3982,7 +3996,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3997,7 +4011,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -4005,7 +4019,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4028,16 +4042,16 @@
         <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4087,7 +4101,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4102,7 +4116,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4110,7 +4124,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4136,21 +4150,21 @@
         <v>67</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>41</v>
@@ -4192,7 +4206,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4207,7 +4221,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4215,7 +4229,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4238,24 +4252,24 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>41</v>
@@ -4297,7 +4311,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4312,7 +4326,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4320,7 +4334,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4343,19 +4357,19 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4404,7 +4418,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4419,7 +4433,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -4427,7 +4441,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4450,19 +4464,19 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -4511,7 +4525,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4526,7 +4540,7 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -4534,7 +4548,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4557,16 +4571,16 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4596,26 +4610,26 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AF34" t="s" s="2">
         <v>48</v>
       </c>
@@ -4629,15 +4643,15 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4660,13 +4674,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4717,7 +4731,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4732,7 +4746,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -4740,11 +4754,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4766,13 +4780,13 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4813,7 +4827,7 @@
         <v>96</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>41</v>
@@ -4822,7 +4836,7 @@
         <v>97</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4837,7 +4851,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -4845,7 +4859,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4868,19 +4882,19 @@
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -4929,7 +4943,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4944,7 +4958,7 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -4952,7 +4966,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4975,13 +4989,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5032,7 +5046,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5047,7 +5061,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -5055,11 +5069,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5081,13 +5095,13 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5128,7 +5142,7 @@
         <v>96</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>41</v>
@@ -5137,7 +5151,7 @@
         <v>97</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5152,7 +5166,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -5160,7 +5174,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5186,16 +5200,16 @@
         <v>61</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5244,7 +5258,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5259,7 +5273,7 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -5267,7 +5281,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5290,16 +5304,16 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5349,7 +5363,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5364,7 +5378,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -5372,7 +5386,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5398,14 +5412,14 @@
         <v>67</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -5454,7 +5468,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5469,7 +5483,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -5477,7 +5491,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5500,17 +5514,17 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -5559,7 +5573,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5574,7 +5588,7 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -5582,7 +5596,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5605,19 +5619,19 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -5666,7 +5680,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5681,7 +5695,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -5689,7 +5703,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5712,19 +5726,19 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -5773,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5788,7 +5802,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -5796,7 +5810,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5819,13 +5833,13 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5876,7 +5890,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>48</v>
@@ -5891,15 +5905,15 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5922,13 +5936,13 @@
         <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5979,7 +5993,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -5997,12 +6011,12 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6025,16 +6039,16 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6084,7 +6098,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6102,12 +6116,12 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6130,13 +6144,13 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6187,7 +6201,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6202,10 +6216,10 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
